--- a/data/trans_dic/P19D_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R2-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.8595056151279571</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8269127289767934</v>
+        <v>0.8269127289767932</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.9014240315139028</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8442761918247473</v>
+        <v>0.8447689550068372</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6987190906162309</v>
+        <v>0.701977210626078</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8252104306299218</v>
+        <v>0.8233288097746514</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7935490269773636</v>
+        <v>0.7931581180954407</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8797697572429074</v>
+        <v>0.8808541099874347</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8219391731151493</v>
+        <v>0.8231403612100422</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8428117093119252</v>
+        <v>0.8394818843502964</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8627817527493584</v>
+        <v>0.8658872805459673</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8710481584901407</v>
+        <v>0.8736125004369518</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.779680741073729</v>
+        <v>0.7794292187597813</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.8445527913102823</v>
+        <v>0.843555877904015</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.842546475279048</v>
+        <v>0.8444627146414276</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8947598962456765</v>
+        <v>0.8958534785053147</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7633075906592879</v>
+        <v>0.7664063763175247</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8923208780584356</v>
+        <v>0.8899718333790542</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8554038608407102</v>
+        <v>0.8548327288471822</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.918730469095556</v>
+        <v>0.9201708710631639</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8655033249905525</v>
+        <v>0.8667346962749618</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8972564543178475</v>
+        <v>0.8967758920048853</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8999903389050016</v>
+        <v>0.9002122741869166</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9029858391451439</v>
+        <v>0.9042052505773289</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8164522010885203</v>
+        <v>0.8184119614743193</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8861026424753845</v>
+        <v>0.8853640158937663</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.875742460305416</v>
+        <v>0.8760071046922376</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.8994402239891084</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9190567388590215</v>
+        <v>0.9190567388590217</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.9392724358918184</v>
@@ -821,7 +821,7 @@
         <v>0.9128269915862858</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.9511974096111036</v>
+        <v>0.9511974096111038</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.9409738379376994</v>
@@ -833,7 +833,7 @@
         <v>0.9061594827777192</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9349885555025187</v>
+        <v>0.9349885555025186</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9295567156725358</v>
+        <v>0.9296943680511901</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8798239060554965</v>
+        <v>0.8811031689987855</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.884083395724074</v>
+        <v>0.8850822413513276</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9028664414511377</v>
+        <v>0.9020900788159762</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9254612673555416</v>
+        <v>0.9253592832574432</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8912490679031105</v>
+        <v>0.889995780551427</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8976570550084274</v>
+        <v>0.8975597420984698</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9424607420869905</v>
+        <v>0.9411765265724683</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9320507650012226</v>
+        <v>0.9304531000688085</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.8906009233407415</v>
+        <v>0.8905270890301947</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8958756327538303</v>
+        <v>0.8960840406363469</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9256630347987745</v>
+        <v>0.9249549827840742</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9542338320191202</v>
+        <v>0.9548179936415612</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9116115185999017</v>
+        <v>0.911928003436022</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9137789997458277</v>
+        <v>0.9135543521979685</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9317023620191995</v>
+        <v>0.9310889764750158</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9519296499938361</v>
+        <v>0.9523339670914229</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.921235927538947</v>
+        <v>0.9217325083847014</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9259202037993453</v>
+        <v>0.9262090531602812</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9596688232470554</v>
+        <v>0.9589123219633237</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9488936193780715</v>
+        <v>0.9485882275980583</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9114954837420217</v>
+        <v>0.9128482671568006</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9167082999610767</v>
+        <v>0.9155385282754053</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9434575177685739</v>
+        <v>0.9425803809948656</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.9712043101258014</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.967766172937802</v>
+        <v>0.9677661729378021</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.9690223214640797</v>
@@ -957,7 +957,7 @@
         <v>0.9524828203550632</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.978142483612875</v>
+        <v>0.9781424836128748</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.9669976055312025</v>
@@ -969,7 +969,7 @@
         <v>0.9617506106346211</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.9730401707117097</v>
+        <v>0.9730401707117095</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9403666917020839</v>
+        <v>0.9401067904385021</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9437992082456493</v>
+        <v>0.9439774860469106</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9543531522780958</v>
+        <v>0.9515733493062567</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9458479352345788</v>
+        <v>0.947602846058841</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9487176774676841</v>
+        <v>0.9487385727346463</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9254345263284877</v>
+        <v>0.9274096349886473</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9267321140914756</v>
+        <v>0.9276782542646504</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9671506067973871</v>
+        <v>0.9644863230177231</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9514700852298991</v>
+        <v>0.9522458163983591</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9421103176854042</v>
+        <v>0.941799300040368</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.9476610141291922</v>
+        <v>0.9472256362200048</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.9619876857218239</v>
+        <v>0.9623255265328267</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9815231208287841</v>
+        <v>0.9815497242025262</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9823339391038607</v>
+        <v>0.9810198727377122</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9833001330067564</v>
+        <v>0.9843085453682332</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9805700729700416</v>
+        <v>0.9807263838372464</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9840963094136378</v>
+        <v>0.9831319504830958</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.969822825390243</v>
+        <v>0.9714819179787615</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9676842960352203</v>
+        <v>0.9684810359345591</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9867424775554929</v>
+        <v>0.9857886973508349</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9783960260801206</v>
+        <v>0.9783798575628389</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9705334454517648</v>
+        <v>0.9706195144192047</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9726711868640863</v>
+        <v>0.9732736491659555</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9811249832177217</v>
+        <v>0.9805524138705913</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.9060388237740579</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9145769430342244</v>
+        <v>0.9145769430342243</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.9304674882363588</v>
@@ -1093,7 +1093,7 @@
         <v>0.9106127836656476</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.9416743836588622</v>
+        <v>0.9416743836588624</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.9288503938444473</v>
@@ -1105,7 +1105,7 @@
         <v>0.9084102642928357</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.9285844730043379</v>
+        <v>0.9285844730043378</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9157524169740296</v>
+        <v>0.9146097781442035</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8499599590080649</v>
+        <v>0.8504200535304312</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8938947655235129</v>
+        <v>0.8940685633905495</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9028987852003959</v>
+        <v>0.9020824169008285</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9207509202546594</v>
+        <v>0.9200901789268838</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8779742671546445</v>
+        <v>0.8778953986301661</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8985056536015842</v>
+        <v>0.8993286543508453</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9345575876567167</v>
+        <v>0.9351604920471238</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9209697591619982</v>
+        <v>0.9211332048024798</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.8689646901273949</v>
+        <v>0.8688371663718695</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8997472265305709</v>
+        <v>0.8994602996677848</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.922721483670113</v>
+        <v>0.9219160727090078</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9372023559187918</v>
+        <v>0.9370137923069907</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8759775650110303</v>
+        <v>0.8768631298965033</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9179080105235421</v>
+        <v>0.9175764978963055</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9246039089676814</v>
+        <v>0.9243588706584358</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9401147220725058</v>
+        <v>0.9398167782690368</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.902057425871674</v>
+        <v>0.901225301705056</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9213255887393302</v>
+        <v>0.9204761240209803</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9483883452902094</v>
+        <v>0.9480896161294604</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9360254547302681</v>
+        <v>0.9358842475605654</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.8863711905412874</v>
+        <v>0.8860221293242727</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9158890422175079</v>
+        <v>0.9160589493816109</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9350383826947768</v>
+        <v>0.9348766656668374</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>582723</v>
+        <v>583063</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>545194</v>
+        <v>547737</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>377467</v>
+        <v>376606</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>425418</v>
+        <v>425208</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>843663</v>
+        <v>844703</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>928305</v>
+        <v>929661</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>537379</v>
+        <v>535256</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>678530</v>
+        <v>680972</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1436500</v>
+        <v>1440729</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1488945</v>
+        <v>1488464</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>924804</v>
+        <v>923712</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1114301</v>
+        <v>1116835</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>617567</v>
+        <v>618322</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>595591</v>
+        <v>598009</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>408165</v>
+        <v>407090</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>458578</v>
+        <v>458272</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>881025</v>
+        <v>882406</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>977506</v>
+        <v>978897</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>572093</v>
+        <v>571787</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>707792</v>
+        <v>707967</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1489171</v>
+        <v>1491182</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1559167</v>
+        <v>1562909</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>970302</v>
+        <v>969493</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1158204</v>
+        <v>1158554</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1221854</v>
+        <v>1222035</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1480896</v>
+        <v>1483049</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1499016</v>
+        <v>1500709</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1937894</v>
+        <v>1936227</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1270839</v>
+        <v>1270699</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1414619</v>
+        <v>1412630</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1533844</v>
+        <v>1533677</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1988304</v>
+        <v>1985594</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2505020</v>
+        <v>2500726</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2912626</v>
+        <v>2912384</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3049809</v>
+        <v>3050518</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3939689</v>
+        <v>3936676</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1254291</v>
+        <v>1255059</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1534400</v>
+        <v>1534933</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1549366</v>
+        <v>1548985</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1999786</v>
+        <v>1998470</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1307185</v>
+        <v>1307740</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1462215</v>
+        <v>1463003</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1582137</v>
+        <v>1582631</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>2024608</v>
+        <v>2023012</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>2550287</v>
+        <v>2549467</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>2980959</v>
+        <v>2985384</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>3120729</v>
+        <v>3116747</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>4015424</v>
+        <v>4011691</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>425452</v>
+        <v>425334</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>414325</v>
+        <v>414403</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>475577</v>
+        <v>474192</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>664735</v>
+        <v>665969</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>387820</v>
+        <v>387828</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>391239</v>
+        <v>392074</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>471076</v>
+        <v>471557</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>702577</v>
+        <v>700641</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>819420</v>
+        <v>820088</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>811872</v>
+        <v>811604</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>953956</v>
+        <v>953518</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1374905</v>
+        <v>1375387</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>444072</v>
+        <v>444085</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>431242</v>
+        <v>430665</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>490002</v>
+        <v>490505</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>689138</v>
+        <v>689248</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>402282</v>
+        <v>401888</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>410004</v>
+        <v>410706</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>491893</v>
+        <v>492298</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>716809</v>
+        <v>716116</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>842609</v>
+        <v>842595</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>836366</v>
+        <v>836440</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>979133</v>
+        <v>979739</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1402256</v>
+        <v>1401438</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2250081</v>
+        <v>2247273</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2466964</v>
+        <v>2468299</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2369985</v>
+        <v>2370446</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3056553</v>
+        <v>3053790</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2523720</v>
+        <v>2521909</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2756314</v>
+        <v>2756067</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2564912</v>
+        <v>2567261</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3385508</v>
+        <v>3387692</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4787220</v>
+        <v>4788070</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>5250153</v>
+        <v>5249383</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4953957</v>
+        <v>4952377</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>6466289</v>
+        <v>6460645</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2302785</v>
+        <v>2302322</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2542478</v>
+        <v>2545049</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2433651</v>
+        <v>2432772</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>3130031</v>
+        <v>3129202</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>2576795</v>
+        <v>2575979</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2831921</v>
+        <v>2829309</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>2630055</v>
+        <v>2627630</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>3435611</v>
+        <v>3434529</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4865480</v>
+        <v>4864746</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>5355321</v>
+        <v>5353212</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>5042833</v>
+        <v>5043768</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>6552604</v>
+        <v>6551471</v>
       </c>
     </row>
     <row r="20">
